--- a/public/templates/MAG Finance Forecast Template.xlsx
+++ b/public/templates/MAG Finance Forecast Template.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="415">
   <si>
     <r>
       <rPr>
@@ -73,47 +73,13 @@
       </rPr>
       <t xml:space="preserve">
 This template is used to track financial disbursements made to mutual aid groups. in Sudan. It compiles both projected and actual funding delivered to mutual aid groups and the intermediary partners that support the funds transfers. The aggregated data is shared among partners, mutual aid groups, and coordination mechanisms to support resource allocation planning. For best results, please follow the field descriptions below and only use valid values where dropdowns are provided.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>General Notes:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">
+General Notes:
 1. Each row represents a unique combination of the following data:
     - Month, State, Intermediary, Transfer Method, Source and Receiving Mag
     - For each month, sum the disbursement amounts for each unique combination to have a single line for that period
 2. The name of your organization and that of your intermediaries will not be shared, please enter those names uniformly with each submission.
 3. If a data option is not available, please reach out to Josh or Santiago for advice, or leave the field blank. 
-4. Please review the Data Validation tab for response options for any field that is a </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>dropdown list.</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve">
+4. Please review the Data Validation tab for response options for any field that is a dropdown list.
 </t>
     </r>
     <r>
@@ -124,8 +90,19 @@
         <color rgb="FF000000"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve">Please note don't change the titles of the worksheets: Guide, Forecast, Data Validation. Keep as-is in order for upload to work. </t>
+      <t xml:space="preserve">Please note:
+- Don't change the titles of the worksheets: Guide, Forecast, Data Validation. Keep as-is in order for upload to work. 
+- </t>
     </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve">The detailed information provided in this template will not be shared publicly. The name of your organization and intermediaries will be anonymized in any public materials. Please see security details and forecast dashboard for what is visible after submission. </t>
+    </r>
   </si>
   <si>
     <t>Field</t>
@@ -152,7 +129,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>format: YYYY-MM</t>
+    <t>Format: YYYY-MM-DD, for the day, you can use the first of the month in evert case, regardless of actual transfer date</t>
   </si>
   <si>
     <t>State</t>
@@ -200,7 +177,7 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Enter total disbursed in USD. Do not include commas.</t>
+    <t>Enter total disbursed in USD per conversion on date of transfer. Do not include commas.</t>
   </si>
   <si>
     <t>Localities</t>
@@ -212,16 +189,16 @@
     <t>Free Text</t>
   </si>
   <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Org Name</t>
+  </si>
+  <si>
+    <t>Your organization</t>
+  </si>
+  <si>
     <t>Enter your organization’s name exactly as used in previous reports.</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Org Name</t>
-  </si>
-  <si>
-    <t>Your organization</t>
   </si>
   <si>
     <t>Intermediary</t>
@@ -338,6 +315,15 @@
     <t>Completed/Planned</t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Any additional information not captured above</t>
+  </si>
+  <si>
+    <t>Free text</t>
+  </si>
+  <si>
     <t>Red Sea  </t>
   </si>
   <si>
@@ -392,6 +378,9 @@
     <t>Blue Nile  </t>
   </si>
   <si>
+    <t>Gadaref</t>
+  </si>
+  <si>
     <t>Al Jazeera</t>
   </si>
   <si>
@@ -413,6 +402,9 @@
     <t>Khartoum  </t>
   </si>
   <si>
+    <t>ERR &amp; Other MAG</t>
+  </si>
+  <si>
     <t>Other UN</t>
   </si>
   <si>
@@ -429,9 +421,6 @@
   </si>
   <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Gadaref</t>
   </si>
   <si>
     <t>North Kordofan  </t>
@@ -506,9 +495,6 @@
   </si>
   <si>
     <t>Recommendations</t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
   <si>
     <t>File link</t>
@@ -1607,7 +1593,7 @@
     <numFmt numFmtId="172" formatCode="d&quot;-&quot;mmm"/>
     <numFmt numFmtId="173" formatCode="d\-mmmm\-yyyy"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="44">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1623,6 +1609,10 @@
       <b/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1902,57 +1892,57 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="40">
     <border/>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
     </border>
     <border>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
     </border>
     <border>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
     </border>
     <border>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -2127,14 +2117,6 @@
       </top>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -2237,22 +2219,6 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -2315,14 +2281,6 @@
       <bottom style="thin">
         <color rgb="FF999999"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
     </border>
     <border>
       <top style="medium">
@@ -2389,824 +2347,828 @@
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="2" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="2" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="2" fontId="6" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="2" fontId="7" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="9" fillId="3" fontId="10" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="9" fillId="3" fontId="11" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="9" fillId="3" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="3" fontId="10" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="3" fontId="10" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="3" fontId="10" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="3" fontId="8" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="3" fontId="8" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="3" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="15" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf borderId="9" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="15" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="16" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="169" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="169" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="169" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="9" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="15" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="0" fontId="16" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="18" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="19" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="10" numFmtId="169" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="12" fillId="0" fontId="10" numFmtId="169" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="169" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="4" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="16" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="16" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="19" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="16" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="20" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="21" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="9" fillId="6" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="9" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="9" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="9" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="6" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="9" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="15" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf borderId="9" fillId="6" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="15" fillId="6" fontId="9" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="6" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="6" fontId="10" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="6" fontId="10" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="6" fontId="16" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="15" fillId="6" fontId="10" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="15" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="16" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="0" fontId="10" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="9" fillId="0" fontId="22" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="0" fontId="23" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="171" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="0" fontId="10" numFmtId="171" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="23" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="9" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="10" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="9" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="0" fontId="10" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="9" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="0" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="6" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="20" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="6" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="26" fillId="0" fontId="21" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="20" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="0" fontId="21" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="7" fontId="23" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="32" fillId="8" fontId="24" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="30" fillId="7" fontId="24" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="31" fillId="8" fontId="25" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="9" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="20" fillId="0" fontId="9" numFmtId="170" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="20" fillId="0" fontId="9" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="34" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="35" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="36" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="8" fontId="24" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="10" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="20" fillId="0" fontId="10" numFmtId="170" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="20" fillId="0" fontId="10" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="33" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="34" fillId="8" fontId="25" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="7" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="30" fillId="7" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="37" fillId="8" fontId="23" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="34" fillId="8" fontId="24" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="168" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="37" fillId="8" fontId="13" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="0" fontId="10" numFmtId="168" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="12" fillId="0" fontId="10" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="4" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="34" fillId="8" fontId="14" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="37" fillId="8" fontId="9" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="34" fillId="8" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="37" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="25" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="38" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="25" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="26" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="35" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="39" fillId="3" fontId="27" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="26" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="36" fillId="3" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="39" fillId="3" fontId="27" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="36" fillId="3" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="9" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="39" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="0" fontId="10" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="36" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="9" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="39" fillId="0" fontId="9" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="39" fillId="0" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="39" fillId="0" fontId="20" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="39" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="0" fontId="10" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="36" fillId="0" fontId="10" numFmtId="166" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="36" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="36" fillId="0" fontId="21" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="36" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="20" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="9" fillId="2" fontId="29" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="36" fillId="0" fontId="21" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="9" fillId="2" fontId="30" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="2" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="30" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="31" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="30" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="31" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="30" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="31" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="30" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="31" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="2" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="30" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="2" fontId="31" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="2" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="21" fillId="2" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="30" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="31" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="2" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="28" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="3" fontId="29" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="28" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="3" fontId="29" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="28" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="3" fontId="29" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="3" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="7" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="3" fontId="8" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="11" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="3" fontId="12" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="3" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="3" fontId="27" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="3" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="3" fontId="27" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="3" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="3" fontId="27" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="21" fillId="3" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="27" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="3" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="27" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="3" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="31" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="0" fontId="32" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="29" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="28" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="4" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="29" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="4" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="4" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="4" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="28" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="4" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="4" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="4" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="4" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="36" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="33" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="9" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="28" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="28" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="28" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="4" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="4" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="4" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="37" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="173" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="33" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="38" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="28" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="28" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="28" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="6" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="6" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="6" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="6" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="6" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="33" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="37" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="39" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="34" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="9" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="29" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="29" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="29" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="4" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="4" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="4" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="38" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="173" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="28" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="0" fontId="34" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="28" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="6" fontId="39" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="6" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="6" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="6" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="6" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="28" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="6" fontId="29" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="40" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="6" fontId="29" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="6" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="6" fontId="29" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="6" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="6" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="6" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="6" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="6" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="34" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="0" fontId="40" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="29" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="29" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="29" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="41" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="34" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="0" fontId="35" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="34" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="0" fontId="35" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="25" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="29" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="40" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="0" fontId="41" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="28" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="0" fontId="29" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="28" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="0" fontId="29" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="28" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="0" fontId="29" numFmtId="172" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="32" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="33" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="20" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="23" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="28" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="3" fillId="0" fontId="29" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="42" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="38" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="28" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="0" fontId="29" numFmtId="170" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="34" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="26" fillId="0" fontId="35" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="34" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="25" fillId="0" fontId="35" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="34" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="25" fillId="0" fontId="35" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="34" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="0" fontId="35" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="34" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="29" fillId="0" fontId="35" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="7" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="7" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="8" fontId="41" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="30" fillId="8" fontId="42" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="7" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="7" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="31" fillId="8" fontId="42" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="30" fillId="8" fontId="43" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="7" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="7" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="43" fillId="8" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="39" fillId="8" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="28" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="9" fillId="0" fontId="29" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3466,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="121.5" customHeight="1"/>
+    <row r="3" ht="153.75" customHeight="1"/>
     <row r="4" ht="12.75" customHeight="1">
       <c r="C4" s="4"/>
       <c r="E4" s="4"/>
@@ -3544,24 +3506,24 @@
       <c r="D9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="B10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="11"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -3576,7 +3538,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -3625,22 +3587,32 @@
       <c r="F14" s="11"/>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="C16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="B16" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="C17" s="4"/>
@@ -8610,7 +8582,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>25</v>
@@ -8627,561 +8599,564 @@
       <c r="J1" s="10" t="s">
         <v>36</v>
       </c>
+      <c r="K1" s="16" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="16">
+      <c r="A2" s="17">
         <v>45658.0</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="B2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="19">
         <v>5000.0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="17">
+        <v>45658.0</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="16">
+      <c r="H3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="17">
         <v>45658.0</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="B4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="19">
         <v>5000.0</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="16">
-        <v>45658.0</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="18">
-        <v>5000.0</v>
-      </c>
       <c r="E4" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="16">
+      <c r="A5" s="17">
         <v>45689.0</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="B5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="19">
         <v>5000.0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="10" t="s">
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="17">
+        <v>45689.0</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="16">
-        <v>45689.0</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="18">
-        <v>5000.0</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="10" t="s">
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="17">
+        <v>45689.0</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="16">
-        <v>45689.0</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="18">
-        <v>5000.0</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="10" t="s">
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="17">
+        <v>45689.0</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="J8" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="17">
+        <v>45689.0</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="16">
-        <v>45689.0</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="C9" s="19">
         <v>5000.0</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="16">
-        <v>45689.0</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="18">
-        <v>5000.0</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="17">
+        <v>45689.0</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="F10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="16">
+      <c r="H10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="17">
         <v>45689.0</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="B11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="19">
         <v>5000.0</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="16">
-        <v>45689.0</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="18">
-        <v>5000.0</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="17">
+        <v>45717.0</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="16">
+      <c r="J12" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="17">
         <v>45717.0</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="19">
         <v>5000.0</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="16">
-        <v>45717.0</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="18">
-        <v>5000.0</v>
-      </c>
       <c r="E13" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="17">
+        <v>45717.0</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="16">
-        <v>45717.0</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="18">
-        <v>5000.0</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="17">
+        <v>45717.0</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="17">
+        <v>45748.0</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="17">
+        <v>45748.0</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="C17" s="19">
+        <v>5000.0</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="F17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="16">
-        <v>45717.0</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="H17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="17">
+        <v>45748.0</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="19">
         <v>5000.0</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="16">
-        <v>45748.0</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="18">
-        <v>5000.0</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="16">
-        <v>45748.0</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="18">
-        <v>5000.0</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="16">
-        <v>45748.0</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="18">
-        <v>5000.0</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="17">
+        <v>45778.0</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="16">
-        <v>45778.0</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="18">
+      <c r="C19" s="19">
         <v>5000.0</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J19" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="17">
+        <v>45809.0</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="16">
-        <v>45809.0</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="C20" s="19">
         <v>5000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="16">
+      <c r="A21" s="17">
         <v>45809.0</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="B21" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="19">
         <v>5000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1"/>
@@ -10222,131 +10197,134 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1"/>
@@ -11371,89 +11349,89 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P1" s="30" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="31"/>
       <c r="R1" s="32"/>
       <c r="S1" s="33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="T1" s="34"/>
       <c r="U1" s="35" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="V1" s="31"/>
       <c r="W1" s="31"/>
       <c r="X1" s="31"/>
       <c r="Y1" s="32"/>
       <c r="Z1" s="25" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AA1" s="25" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AB1" s="25" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AC1" s="25" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AD1" s="25" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AE1" s="25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AF1" s="36" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AG1" s="36" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -11464,10 +11442,10 @@
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
       <c r="G2" s="38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H2" s="39" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="41"/>
@@ -11477,34 +11455,34 @@
       <c r="N2" s="40"/>
       <c r="O2" s="40"/>
       <c r="P2" s="43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="S2" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="T2" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="S2" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="T2" s="47" t="s">
-        <v>100</v>
-      </c>
       <c r="U2" s="39" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="V2" s="39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="W2" s="39" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X2" s="39" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Y2" s="39" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Z2" s="37"/>
       <c r="AA2" s="37"/>
@@ -11517,28 +11495,28 @@
     </row>
     <row r="3" ht="27.75" customHeight="1">
       <c r="A3" s="48" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G3" s="54">
         <v>400.0</v>
       </c>
       <c r="H3" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I3" s="55">
         <v>45542.0</v>
@@ -11554,13 +11532,13 @@
         <v>2550.0</v>
       </c>
       <c r="M3" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N3" s="57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O3" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P3" s="55">
         <v>45542.0</v>
@@ -11585,34 +11563,34 @@
       <c r="AD3" s="63"/>
       <c r="AE3" s="63"/>
       <c r="AF3" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG3" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="64"/>
       <c r="B4" s="49" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G4" s="54">
         <v>400.0</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I4" s="55">
         <v>45542.0</v>
@@ -11628,13 +11606,13 @@
         <v>2550.0</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N4" s="57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O4" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P4" s="55">
         <v>45542.0</v>
@@ -11659,34 +11637,34 @@
       <c r="AD4" s="63"/>
       <c r="AE4" s="63"/>
       <c r="AF4" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG4" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="64"/>
       <c r="B5" s="49" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G5" s="54">
         <v>400.0</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I5" s="55">
         <v>45542.0</v>
@@ -11702,13 +11680,13 @@
         <v>2550.0</v>
       </c>
       <c r="M5" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N5" s="57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O5" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P5" s="55">
         <v>45542.0</v>
@@ -11733,34 +11711,34 @@
       <c r="AD5" s="63"/>
       <c r="AE5" s="63"/>
       <c r="AF5" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG5" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="64"/>
       <c r="B6" s="49" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G6" s="54">
         <v>400.0</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I6" s="55">
         <v>45542.0</v>
@@ -11776,13 +11754,13 @@
         <v>2550.0</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N6" s="57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O6" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P6" s="55">
         <v>45542.0</v>
@@ -11807,34 +11785,34 @@
       <c r="AD6" s="63"/>
       <c r="AE6" s="63"/>
       <c r="AF6" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG6" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="64"/>
       <c r="B7" s="49" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G7" s="54">
         <v>400.0</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I7" s="55">
         <v>45542.0</v>
@@ -11850,13 +11828,13 @@
         <v>2550.0</v>
       </c>
       <c r="M7" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N7" s="57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O7" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P7" s="55">
         <v>45542.0</v>
@@ -11881,34 +11859,34 @@
       <c r="AD7" s="63"/>
       <c r="AE7" s="63"/>
       <c r="AF7" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG7" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="64"/>
       <c r="B8" s="49" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F8" s="50" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G8" s="54">
         <v>400.0</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I8" s="55">
         <v>45542.0</v>
@@ -11924,13 +11902,13 @@
         <v>2550.0</v>
       </c>
       <c r="M8" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N8" s="57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O8" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P8" s="55">
         <v>45542.0</v>
@@ -11955,34 +11933,34 @@
       <c r="AD8" s="63"/>
       <c r="AE8" s="63"/>
       <c r="AF8" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG8" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="64"/>
       <c r="B9" s="49" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G9" s="54">
         <v>400.0</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I9" s="55">
         <v>45542.0</v>
@@ -11998,13 +11976,13 @@
         <v>2550.0</v>
       </c>
       <c r="M9" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N9" s="57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O9" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P9" s="55">
         <v>45542.0</v>
@@ -12029,34 +12007,34 @@
       <c r="AD9" s="63"/>
       <c r="AE9" s="63"/>
       <c r="AF9" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG9" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" ht="20.25" customHeight="1">
       <c r="A10" s="64"/>
       <c r="B10" s="69" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I10" s="55">
         <v>45542.0</v>
@@ -12072,13 +12050,13 @@
         <v>2550.0</v>
       </c>
       <c r="M10" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N10" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O10" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P10" s="55">
         <v>45542.0</v>
@@ -12103,34 +12081,34 @@
       <c r="AD10" s="63"/>
       <c r="AE10" s="63"/>
       <c r="AF10" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG10" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="70"/>
       <c r="B11" s="71" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G11" s="54">
         <v>400.0</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I11" s="72">
         <v>45544.0</v>
@@ -12146,13 +12124,13 @@
         <v>2600.0</v>
       </c>
       <c r="M11" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N11" s="57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O11" s="74" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P11" s="72">
         <v>45544.0</v>
@@ -12177,36 +12155,36 @@
       <c r="AD11" s="63"/>
       <c r="AE11" s="63"/>
       <c r="AF11" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG11" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="48" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G12" s="54">
         <v>1500.0</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I12" s="55">
         <v>45542.0</v>
@@ -12222,13 +12200,13 @@
         <v>2550.0</v>
       </c>
       <c r="M12" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N12" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O12" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P12" s="55">
         <v>45542.0</v>
@@ -12246,67 +12224,67 @@
         <v>800.0</v>
       </c>
       <c r="U12" s="77" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V12" s="78" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W12" s="78" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="X12" s="78" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Y12" s="78" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Z12" s="63" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AA12" s="63" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AB12" s="63" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AC12" s="63" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AD12" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AE12" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AF12" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG12" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="64"/>
       <c r="B13" s="49" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G13" s="54">
         <v>2210.0</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I13" s="55">
         <v>45542.0</v>
@@ -12322,13 +12300,13 @@
         <v>2550.0</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O13" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P13" s="55">
         <v>45542.0</v>
@@ -12353,34 +12331,34 @@
       <c r="AD13" s="63"/>
       <c r="AE13" s="63"/>
       <c r="AF13" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG13" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="64"/>
       <c r="B14" s="79" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G14" s="54">
         <v>6000.0</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I14" s="55">
         <v>45542.0</v>
@@ -12396,13 +12374,13 @@
         <v>2550.0</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N14" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O14" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P14" s="55">
         <v>45542.0</v>
@@ -12427,34 +12405,34 @@
       <c r="AD14" s="63"/>
       <c r="AE14" s="63"/>
       <c r="AF14" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG14" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="64"/>
       <c r="B15" s="49" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G15" s="54">
         <v>2300.0</v>
       </c>
       <c r="H15" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I15" s="55">
         <v>45542.0</v>
@@ -12470,13 +12448,13 @@
         <v>2550.0</v>
       </c>
       <c r="M15" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N15" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O15" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P15" s="55">
         <v>45542.0</v>
@@ -12501,34 +12479,34 @@
       <c r="AD15" s="63"/>
       <c r="AE15" s="63"/>
       <c r="AF15" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG15" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="64"/>
       <c r="B16" s="49" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G16" s="54">
         <v>6000.0</v>
       </c>
       <c r="H16" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I16" s="55">
         <v>45542.0</v>
@@ -12544,13 +12522,13 @@
         <v>2550.0</v>
       </c>
       <c r="M16" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N16" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O16" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P16" s="55">
         <v>45542.0</v>
@@ -12575,34 +12553,34 @@
       <c r="AD16" s="63"/>
       <c r="AE16" s="63"/>
       <c r="AF16" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG16" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1">
       <c r="A17" s="64"/>
       <c r="B17" s="49" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G17" s="54">
         <v>5400.0</v>
       </c>
       <c r="H17" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I17" s="55">
         <v>45542.0</v>
@@ -12618,13 +12596,13 @@
         <v>2550.0</v>
       </c>
       <c r="M17" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N17" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O17" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P17" s="55">
         <v>45542.0</v>
@@ -12649,34 +12627,34 @@
       <c r="AD17" s="63"/>
       <c r="AE17" s="63"/>
       <c r="AF17" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG17" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="64"/>
       <c r="B18" s="49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G18" s="54">
         <v>5220.0</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I18" s="55">
         <v>45542.0</v>
@@ -12692,13 +12670,13 @@
         <v>2550.0</v>
       </c>
       <c r="M18" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N18" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O18" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P18" s="55">
         <v>45542.0</v>
@@ -12723,34 +12701,34 @@
       <c r="AD18" s="63"/>
       <c r="AE18" s="63"/>
       <c r="AF18" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG18" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="70"/>
       <c r="B19" s="71" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F19" s="63" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G19" s="54">
         <v>390.0</v>
       </c>
       <c r="H19" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I19" s="80">
         <v>45544.0</v>
@@ -12766,13 +12744,13 @@
         <v>2550.0</v>
       </c>
       <c r="M19" s="74" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N19" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O19" s="74" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P19" s="80">
         <v>45544.0</v>
@@ -12797,36 +12775,36 @@
       <c r="AD19" s="63"/>
       <c r="AE19" s="63"/>
       <c r="AF19" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG19" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="48" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F20" s="63" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G20" s="54">
         <v>1604.0</v>
       </c>
       <c r="H20" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I20" s="55">
         <v>45542.0</v>
@@ -12842,13 +12820,13 @@
         <v>2600.0</v>
       </c>
       <c r="M20" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N20" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O20" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P20" s="55">
         <v>45542.0</v>
@@ -12873,31 +12851,31 @@
       <c r="AD20" s="63"/>
       <c r="AE20" s="63"/>
       <c r="AF20" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG20" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="64"/>
       <c r="B21" s="49" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F21" s="63" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G21" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H21" s="54">
         <v>176.0</v>
@@ -12916,13 +12894,13 @@
         <v>2550.0</v>
       </c>
       <c r="M21" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N21" s="57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O21" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P21" s="80">
         <v>45544.0</v>
@@ -12955,52 +12933,52 @@
         <v>460.0</v>
       </c>
       <c r="Z21" s="63" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AA21" s="63" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AB21" s="63" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AC21" s="63" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AD21" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AE21" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AF21" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG21" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" ht="27.0" customHeight="1">
       <c r="A22" s="64"/>
       <c r="B22" s="49" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F22" s="63" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H22" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I22" s="55">
         <v>45542.0</v>
@@ -13016,13 +12994,13 @@
         <v>2600.0</v>
       </c>
       <c r="M22" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N22" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O22" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P22" s="55">
         <v>45542.0</v>
@@ -13047,34 +13025,34 @@
       <c r="AD22" s="63"/>
       <c r="AE22" s="63"/>
       <c r="AF22" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG22" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" ht="23.25" customHeight="1">
       <c r="A23" s="64"/>
       <c r="B23" s="49" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F23" s="63" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G23" s="54">
         <v>667.0</v>
       </c>
       <c r="H23" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I23" s="81">
         <v>45544.0</v>
@@ -13090,13 +13068,13 @@
         <v>2600.0</v>
       </c>
       <c r="M23" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N23" s="57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O23" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P23" s="81">
         <v>45544.0</v>
@@ -13129,47 +13107,47 @@
         <v>30.0</v>
       </c>
       <c r="Z23" s="63" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AA23" s="63" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AB23" s="63" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AC23" s="86" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AD23" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AE23" s="63"/>
       <c r="AF23" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG23" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="64"/>
       <c r="B24" s="71" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F24" s="63" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G24" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H24" s="54">
         <v>500.0</v>
@@ -13188,13 +13166,13 @@
         <v>2550.0</v>
       </c>
       <c r="M24" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N24" s="57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O24" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P24" s="55">
         <v>45542.0</v>
@@ -13227,50 +13205,50 @@
         <v>5.0</v>
       </c>
       <c r="Z24" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA24" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB24" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC24" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="AA24" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB24" s="86" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC24" s="86" t="s">
-        <v>178</v>
-      </c>
       <c r="AD24" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AE24" s="63"/>
       <c r="AF24" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG24" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
       <c r="A25" s="64"/>
       <c r="B25" s="69" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F25" s="63" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G25" s="54">
         <v>1315.0</v>
       </c>
       <c r="H25" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I25" s="55">
         <v>45542.0</v>
@@ -13286,13 +13264,13 @@
         <v>2600.0</v>
       </c>
       <c r="M25" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N25" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O25" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P25" s="55">
         <v>45542.0</v>
@@ -13317,31 +13295,31 @@
       <c r="AD25" s="63"/>
       <c r="AE25" s="63"/>
       <c r="AF25" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG25" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="64"/>
       <c r="B26" s="71" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F26" s="63" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H26" s="54">
         <v>291.0</v>
@@ -13360,13 +13338,13 @@
         <v>2600.0</v>
       </c>
       <c r="M26" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N26" s="57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O26" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P26" s="55">
         <v>45542.0</v>
@@ -13399,49 +13377,49 @@
         <v>117.0</v>
       </c>
       <c r="Z26" s="63" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AA26" s="63" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AB26" s="63" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AC26" s="63" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AD26" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AE26" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AF26" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG26" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="70"/>
       <c r="B27" s="87" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C27" s="88" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D27" s="89" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E27" s="90" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F27" s="91" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G27" s="92" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H27" s="92">
         <v>2000.0</v>
@@ -13460,13 +13438,13 @@
         <v>2550.0</v>
       </c>
       <c r="M27" s="88" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N27" s="88" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O27" s="88" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P27" s="93">
         <v>45546.0</v>
@@ -13484,66 +13462,66 @@
         <v>246.0</v>
       </c>
       <c r="U27" s="62" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="V27" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="W27" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="X27" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Y27" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Z27" s="63" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AA27" s="63" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AB27" s="63" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AC27" s="63" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AD27" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AE27" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AF27" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG27" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="97" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F28" s="63" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H28" s="54">
         <v>3000.0</v>
@@ -13562,13 +13540,13 @@
         <v>2550.0</v>
       </c>
       <c r="M28" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N28" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O28" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P28" s="80">
         <v>45543.0</v>
@@ -13593,36 +13571,36 @@
       <c r="AD28" s="63"/>
       <c r="AE28" s="63"/>
       <c r="AF28" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG28" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="48" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F29" s="63" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G29" s="54">
         <v>289.0</v>
       </c>
       <c r="H29" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I29" s="80">
         <v>45548.0</v>
@@ -13638,13 +13616,13 @@
         <v>2600.0</v>
       </c>
       <c r="M29" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N29" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O29" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P29" s="80">
         <v>45548.0</v>
@@ -13669,34 +13647,34 @@
       <c r="AD29" s="63"/>
       <c r="AE29" s="63"/>
       <c r="AF29" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG29" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="64"/>
       <c r="B30" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="C30" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>207</v>
-      </c>
       <c r="E30" s="52" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F30" s="63" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G30" s="54">
         <v>286.0</v>
       </c>
       <c r="H30" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I30" s="80">
         <v>45548.0</v>
@@ -13712,13 +13690,13 @@
         <v>2600.0</v>
       </c>
       <c r="M30" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N30" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O30" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P30" s="80">
         <v>45548.0</v>
@@ -13743,34 +13721,34 @@
       <c r="AD30" s="63"/>
       <c r="AE30" s="63"/>
       <c r="AF30" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG30" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="64"/>
       <c r="B31" s="49" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F31" s="63" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G31" s="54">
         <v>219.0</v>
       </c>
       <c r="H31" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I31" s="80">
         <v>45548.0</v>
@@ -13786,13 +13764,13 @@
         <v>2600.0</v>
       </c>
       <c r="M31" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N31" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O31" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P31" s="80">
         <v>45548.0</v>
@@ -13817,34 +13795,34 @@
       <c r="AD31" s="63"/>
       <c r="AE31" s="63"/>
       <c r="AF31" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG31" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="64"/>
       <c r="B32" s="49" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E32" s="52" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F32" s="63" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G32" s="54">
         <v>162.0</v>
       </c>
       <c r="H32" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I32" s="80">
         <v>45548.0</v>
@@ -13860,13 +13838,13 @@
         <v>2600.0</v>
       </c>
       <c r="M32" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N32" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O32" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P32" s="80">
         <v>45548.0</v>
@@ -13891,34 +13869,34 @@
       <c r="AD32" s="63"/>
       <c r="AE32" s="63"/>
       <c r="AF32" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG32" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="64"/>
       <c r="B33" s="49" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F33" s="63" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G33" s="54">
         <v>109.0</v>
       </c>
       <c r="H33" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I33" s="80">
         <v>45548.0</v>
@@ -13934,13 +13912,13 @@
         <v>2600.0</v>
       </c>
       <c r="M33" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N33" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O33" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P33" s="80">
         <v>45548.0</v>
@@ -13965,34 +13943,34 @@
       <c r="AD33" s="63"/>
       <c r="AE33" s="63"/>
       <c r="AF33" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG33" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="64"/>
       <c r="B34" s="49" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F34" s="63" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G34" s="54">
         <v>165.0</v>
       </c>
       <c r="H34" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I34" s="80">
         <v>45548.0</v>
@@ -14008,13 +13986,13 @@
         <v>2600.0</v>
       </c>
       <c r="M34" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N34" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O34" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P34" s="80">
         <v>45548.0</v>
@@ -14039,34 +14017,34 @@
       <c r="AD34" s="63"/>
       <c r="AE34" s="63"/>
       <c r="AF34" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG34" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="70"/>
       <c r="B35" s="49" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F35" s="63" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G35" s="54">
         <v>435.0</v>
       </c>
       <c r="H35" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I35" s="80">
         <v>45548.0</v>
@@ -14082,13 +14060,13 @@
         <v>2600.0</v>
       </c>
       <c r="M35" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N35" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O35" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P35" s="80">
         <v>45548.0</v>
@@ -14113,30 +14091,30 @@
       <c r="AD35" s="63"/>
       <c r="AE35" s="63"/>
       <c r="AF35" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG35" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="97" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E36" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F36" s="63" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G36" s="54">
         <v>1200.0</v>
@@ -14158,13 +14136,13 @@
         <v>2600.0</v>
       </c>
       <c r="M36" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N36" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O36" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P36" s="80">
         <v>45549.0</v>
@@ -14189,30 +14167,30 @@
       <c r="AD36" s="63"/>
       <c r="AE36" s="63"/>
       <c r="AF36" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG36" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="48" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B37" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="C37" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>224</v>
-      </c>
       <c r="E37" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F37" s="63" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G37" s="54">
         <v>10520.0</v>
@@ -14234,13 +14212,13 @@
         <v>2600.0</v>
       </c>
       <c r="M37" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N37" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O37" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P37" s="80">
         <v>45550.0</v>
@@ -14265,34 +14243,34 @@
       <c r="AD37" s="63"/>
       <c r="AE37" s="63"/>
       <c r="AF37" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG37" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
       <c r="A38" s="64"/>
       <c r="B38" s="49" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F38" s="63" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G38" s="54">
         <v>10520.0</v>
       </c>
       <c r="H38" s="54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I38" s="80">
         <v>45551.0</v>
@@ -14308,13 +14286,13 @@
         <v>2600.0</v>
       </c>
       <c r="M38" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N38" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O38" s="57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P38" s="80">
         <v>45551.0</v>
@@ -14344,49 +14322,49 @@
         <v>540.0</v>
       </c>
       <c r="Y38" s="50" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Z38" s="63" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AA38" s="63" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AB38" s="63" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AC38" s="63" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AD38" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AE38" s="63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AF38" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG38" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" ht="24.0" customHeight="1">
       <c r="A39" s="70"/>
       <c r="B39" s="49" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E39" s="52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F39" s="63" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G39" s="54">
         <v>5000.0</v>
@@ -14406,13 +14384,13 @@
         <v>2600.0</v>
       </c>
       <c r="M39" s="50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="N39" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O39" s="50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P39" s="80">
         <v>45552.0</v>
@@ -14437,33 +14415,33 @@
       <c r="AD39" s="63"/>
       <c r="AE39" s="63"/>
       <c r="AF39" s="50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG39" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="104" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B40" s="105" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C40" s="106" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D40" s="107" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E40" s="52" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F40" s="108" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G40" s="109" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H40" s="109">
         <v>580.0</v>
@@ -14482,13 +14460,13 @@
         <v>2500.0</v>
       </c>
       <c r="M40" s="106" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N40" s="106" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O40" s="106" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P40" s="110">
         <v>45552.0</v>
@@ -14511,20 +14489,20 @@
       <c r="AB40" s="108"/>
       <c r="AC40" s="108"/>
       <c r="AD40" s="116" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AE40" s="108"/>
       <c r="AF40" s="106" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG40" s="106" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="117"/>
       <c r="B41" s="118" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C41" s="119"/>
       <c r="D41" s="119"/>
@@ -14593,7 +14571,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="128" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B42" s="129">
         <v>536194.0</v>
@@ -14632,7 +14610,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="128" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B43" s="138">
         <f>0</f>
@@ -14672,14 +14650,14 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="140" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B44" s="138">
         <f>135109.29+121609.29</f>
         <v>256718.58</v>
       </c>
       <c r="C44" s="141" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D44" s="142">
         <v>256718.58000000002</v>
@@ -14716,7 +14694,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="128" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B45" s="143">
         <f>B44*2%</f>
@@ -14756,7 +14734,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="140" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B46" s="138">
         <f>B44-B45</f>
@@ -14796,7 +14774,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="128" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B47" s="143">
         <f>J41</f>
@@ -14836,7 +14814,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="140" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B48" s="143">
         <f>B47+B45</f>
@@ -14876,7 +14854,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="140" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B49" s="138">
         <f>B44-B48</f>
@@ -14916,7 +14894,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="140" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B50" s="147">
         <f>B42-B44</f>
@@ -14956,7 +14934,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="140" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B51" s="147">
         <v>37502.2</v>
@@ -14995,7 +14973,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="140" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B52" s="148">
         <f>B50-B51</f>
@@ -15035,7 +15013,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="128" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B53" s="148"/>
       <c r="C53" s="62"/>
@@ -15072,7 +15050,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="140" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B54" s="149"/>
       <c r="C54" s="62"/>
@@ -15109,7 +15087,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="140" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B55" s="149"/>
       <c r="C55" s="62"/>
@@ -15146,7 +15124,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="128" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B56" s="149"/>
       <c r="C56" s="62"/>
@@ -15183,7 +15161,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="140" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B57" s="152"/>
       <c r="C57" s="62"/>
@@ -23033,10 +23011,10 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="C3" s="86" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E3" s="155"/>
     </row>
@@ -23046,39 +23024,39 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="86"/>
       <c r="C5" s="156" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D5" s="156" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E5" s="156" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="157" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G5" s="157" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H5" s="157" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I5" s="157" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J5" s="157" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K5" s="157" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L5" s="156" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="C6" s="158" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D6" s="159">
         <f>'LCC-VTL-0724-0001'!J26</f>
@@ -23116,7 +23094,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="C7" s="158" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D7" s="162">
         <f>SUM('LCC-VTL-0724-0001'!J3:J17)</f>
@@ -23154,7 +23132,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="C8" s="158" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D8" s="162">
         <f>'LCC-VTL-0724-0001'!J27</f>
@@ -23192,7 +23170,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="C9" s="158" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D9" s="162">
         <f>SUM('LCC-VTL-0724-0001'!J28:J30)</f>
@@ -23230,7 +23208,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="C10" s="163" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D10" s="164">
         <f t="shared" ref="D10:L10" si="1">SUM(D6:D9)</f>
@@ -24723,87 +24701,87 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="167" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B1" s="168" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C1" s="169" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D1" s="170" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E1" s="170" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F1" s="171" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G1" s="171" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H1" s="168" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I1" s="171" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J1" s="172" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K1" s="173" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L1" s="173" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M1" s="174" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N1" s="175" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O1" s="175" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P1" s="176" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q1" s="31"/>
       <c r="R1" s="32"/>
       <c r="S1" s="177"/>
       <c r="T1" s="178" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="U1" s="34"/>
       <c r="V1" s="179"/>
       <c r="W1" s="180" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="X1" s="181"/>
       <c r="Y1" s="181"/>
       <c r="Z1" s="181"/>
       <c r="AA1" s="171" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AB1" s="171" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AC1" s="171" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AD1" s="171" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AE1" s="171" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AF1" s="168" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AG1" s="168" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -24823,35 +24801,35 @@
       <c r="N2" s="184"/>
       <c r="O2" s="184"/>
       <c r="P2" s="187" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="187" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="R2" s="188" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="S2" s="189"/>
       <c r="T2" s="190" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U2" s="191" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="V2" s="192" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="W2" s="193" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="X2" s="193" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Y2" s="193" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Z2" s="194" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AA2" s="183"/>
       <c r="AB2" s="183"/>
@@ -24863,28 +24841,28 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="195" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B3" s="196" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C3" s="197" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D3" s="198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E3" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F3" s="200" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G3" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H3" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I3" s="201">
         <v>45505.0</v>
@@ -24900,13 +24878,13 @@
         <v>2400.0</v>
       </c>
       <c r="M3" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N3" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O3" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P3" s="201">
         <v>45481.0</v>
@@ -24930,45 +24908,45 @@
       <c r="Y3" s="209"/>
       <c r="Z3" s="209"/>
       <c r="AA3" s="200" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AB3" s="200" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AC3" s="197" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AD3" s="200"/>
       <c r="AE3" s="200"/>
       <c r="AF3" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG3" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" ht="27.0" customHeight="1">
       <c r="A4" s="64"/>
       <c r="B4" s="210" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C4" s="197" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D4" s="198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E4" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F4" s="197" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G4" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H4" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I4" s="201">
         <v>45505.0</v>
@@ -24984,13 +24962,13 @@
         <v>2400.0</v>
       </c>
       <c r="M4" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N4" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O4" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P4" s="211">
         <v>45507.0</v>
@@ -25020,45 +24998,45 @@
         <v>10.0</v>
       </c>
       <c r="AA4" s="200" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AB4" s="200" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AC4" s="200" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AD4" s="200"/>
       <c r="AE4" s="200"/>
       <c r="AF4" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG4" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="64"/>
       <c r="B5" s="210" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C5" s="197" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D5" s="198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E5" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F5" s="200" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G5" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H5" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I5" s="201">
         <v>45505.0</v>
@@ -25074,13 +25052,13 @@
         <v>2400.0</v>
       </c>
       <c r="M5" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N5" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O5" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P5" s="201">
         <v>45480.0</v>
@@ -25104,45 +25082,45 @@
       <c r="Y5" s="209"/>
       <c r="Z5" s="209"/>
       <c r="AA5" s="200" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AB5" s="200" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AC5" s="197" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AD5" s="200"/>
       <c r="AE5" s="200"/>
       <c r="AF5" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG5" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="64"/>
       <c r="B6" s="210" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C6" s="197" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D6" s="198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E6" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F6" s="197" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G6" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H6" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I6" s="201">
         <v>45505.0</v>
@@ -25158,13 +25136,13 @@
         <v>2400.0</v>
       </c>
       <c r="M6" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N6" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O6" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P6" s="201">
         <v>45481.0</v>
@@ -25192,45 +25170,45 @@
         <v>5.0</v>
       </c>
       <c r="AA6" s="200" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AB6" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AC6" s="197" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AD6" s="200"/>
       <c r="AE6" s="200"/>
       <c r="AF6" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG6" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" ht="48.0" customHeight="1">
       <c r="A7" s="64"/>
       <c r="B7" s="214" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C7" s="215" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D7" s="216" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E7" s="217" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F7" s="218" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G7" s="215" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H7" s="215" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I7" s="211">
         <v>45506.0</v>
@@ -25246,13 +25224,13 @@
         <v>2400.0</v>
       </c>
       <c r="M7" s="215" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N7" s="215" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O7" s="215" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P7" s="211">
         <v>45506.0</v>
@@ -25276,47 +25254,47 @@
       <c r="Y7" s="225"/>
       <c r="Z7" s="225"/>
       <c r="AA7" s="226" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AB7" s="226" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AC7" s="226" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AD7" s="215" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AE7" s="218"/>
       <c r="AF7" s="215" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG7" s="215" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" ht="34.5" customHeight="1">
       <c r="A8" s="64"/>
       <c r="B8" s="227" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C8" s="197" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D8" s="198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E8" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F8" s="197" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G8" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H8" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I8" s="201">
         <v>45505.0</v>
@@ -25332,13 +25310,13 @@
         <v>2400.0</v>
       </c>
       <c r="M8" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N8" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O8" s="197" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P8" s="201">
         <v>45506.0</v>
@@ -25366,45 +25344,45 @@
       </c>
       <c r="Z8" s="209"/>
       <c r="AA8" s="200" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AB8" s="229" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AC8" s="229" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AD8" s="200"/>
       <c r="AE8" s="200"/>
       <c r="AF8" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG8" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" ht="45.0" customHeight="1">
       <c r="A9" s="64"/>
       <c r="B9" s="210" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C9" s="197" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D9" s="198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E9" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F9" s="197" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G9" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H9" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I9" s="201">
         <v>45506.0</v>
@@ -25420,13 +25398,13 @@
         <v>2400.0</v>
       </c>
       <c r="M9" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N9" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O9" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P9" s="201">
         <v>45506.0</v>
@@ -25448,45 +25426,45 @@
       <c r="Y9" s="209"/>
       <c r="Z9" s="209"/>
       <c r="AA9" s="200" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AB9" s="229" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AC9" s="229" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AD9" s="200"/>
       <c r="AE9" s="200"/>
       <c r="AF9" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG9" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" ht="42.0" customHeight="1">
       <c r="A10" s="64"/>
       <c r="B10" s="210" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C10" s="197" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D10" s="198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E10" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F10" s="229" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G10" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H10" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="I10" s="201">
         <v>45505.0</v>
@@ -25502,13 +25480,13 @@
         <v>2400.0</v>
       </c>
       <c r="M10" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N10" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O10" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P10" s="232">
         <v>45512.0</v>
@@ -25532,45 +25510,45 @@
       <c r="Y10" s="209"/>
       <c r="Z10" s="209"/>
       <c r="AA10" s="229" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AB10" s="233" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AC10" s="197" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AD10" s="200"/>
       <c r="AE10" s="200"/>
       <c r="AF10" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG10" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" ht="44.25" customHeight="1">
       <c r="A11" s="64"/>
       <c r="B11" s="210" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C11" s="197" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D11" s="198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E11" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F11" s="197" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="G11" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H11" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I11" s="201">
         <v>45510.0</v>
@@ -25586,13 +25564,13 @@
         <v>2400.0</v>
       </c>
       <c r="M11" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N11" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O11" s="197" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P11" s="232">
         <v>45501.0</v>
@@ -25613,34 +25591,34 @@
       <c r="AD11" s="200"/>
       <c r="AE11" s="200"/>
       <c r="AF11" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG11" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" ht="48.0" customHeight="1">
       <c r="A12" s="64"/>
       <c r="B12" s="235" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C12" s="236" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D12" s="198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E12" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F12" s="226" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G12" s="226" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H12" s="226" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I12" s="237">
         <v>45506.0</v>
@@ -25656,19 +25634,19 @@
         <v>2400.0</v>
       </c>
       <c r="M12" s="226" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N12" s="236" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O12" s="226" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P12" s="240">
         <v>45507.0</v>
       </c>
       <c r="Q12" s="236" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="R12" s="237">
         <v>45517.0</v>
@@ -25688,47 +25666,47 @@
         <v>23.0</v>
       </c>
       <c r="AA12" s="236" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AB12" s="236" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AC12" s="236" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AD12" s="236" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AE12" s="218"/>
       <c r="AF12" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG12" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="64"/>
       <c r="B13" s="210" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C13" s="197" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D13" s="198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E13" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F13" s="197" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G13" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H13" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I13" s="201">
         <v>45506.0</v>
@@ -25744,13 +25722,13 @@
         <v>2400.0</v>
       </c>
       <c r="M13" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N13" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O13" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P13" s="232">
         <v>45507.0</v>
@@ -25772,45 +25750,45 @@
       <c r="Y13" s="209"/>
       <c r="Z13" s="209"/>
       <c r="AA13" s="229" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AB13" s="245" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AC13" s="200" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AD13" s="200"/>
       <c r="AE13" s="200"/>
       <c r="AF13" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG13" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="64"/>
       <c r="B14" s="210" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C14" s="197" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D14" s="198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E14" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F14" s="197" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G14" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H14" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I14" s="201">
         <v>45507.0</v>
@@ -25826,13 +25804,13 @@
         <v>2400.0</v>
       </c>
       <c r="M14" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N14" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O14" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P14" s="232">
         <v>45498.0</v>
@@ -25853,34 +25831,34 @@
       <c r="AD14" s="200"/>
       <c r="AE14" s="200"/>
       <c r="AF14" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG14" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="64"/>
       <c r="B15" s="210" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C15" s="197" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D15" s="198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E15" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F15" s="197" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G15" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H15" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I15" s="201">
         <v>45506.0</v>
@@ -25896,16 +25874,16 @@
         <v>2400.0</v>
       </c>
       <c r="M15" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N15" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O15" s="197" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P15" s="232" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q15" s="234"/>
       <c r="R15" s="234"/>
@@ -25923,34 +25901,34 @@
       <c r="AD15" s="200"/>
       <c r="AE15" s="200"/>
       <c r="AF15" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG15" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
       <c r="A16" s="64"/>
       <c r="B16" s="210" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C16" s="197" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D16" s="198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E16" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F16" s="229" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G16" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H16" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="I16" s="201">
         <v>45506.0</v>
@@ -25966,13 +25944,13 @@
         <v>2400.0</v>
       </c>
       <c r="M16" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N16" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O16" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P16" s="232">
         <v>45506.0</v>
@@ -25996,47 +25974,47 @@
       <c r="Y16" s="209"/>
       <c r="Z16" s="209"/>
       <c r="AA16" s="229" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AB16" s="229" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AC16" s="229" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AD16" s="229" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AE16" s="200"/>
       <c r="AF16" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG16" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" ht="24.75" customHeight="1">
       <c r="A17" s="70"/>
       <c r="B17" s="227" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C17" s="197" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D17" s="198" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E17" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F17" s="200" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G17" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H17" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I17" s="247">
         <v>45510.0</v>
@@ -26052,13 +26030,13 @@
         <v>2400.0</v>
       </c>
       <c r="M17" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N17" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O17" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P17" s="232">
         <v>45507.0</v>
@@ -26090,47 +26068,47 @@
       </c>
       <c r="Z17" s="209"/>
       <c r="AA17" s="229" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AB17" s="229" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AC17" s="229" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AD17" s="200"/>
       <c r="AE17" s="200"/>
       <c r="AF17" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG17" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="248" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B18" s="196" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C18" s="197" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D18" s="198" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E18" s="199" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F18" s="200" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G18" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H18" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I18" s="249">
         <v>45504.0</v>
@@ -26147,19 +26125,19 @@
         <v>2500.0</v>
       </c>
       <c r="M18" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N18" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O18" s="197" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P18" s="232">
         <v>45504.0</v>
       </c>
       <c r="Q18" s="197" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="R18" s="232">
         <v>45527.0</v>
@@ -26187,47 +26165,47 @@
         <v>0.0</v>
       </c>
       <c r="AA18" s="200" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AB18" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AC18" s="197" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AD18" s="200"/>
       <c r="AE18" s="200"/>
       <c r="AF18" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG18" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="251" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B19" s="252" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C19" s="253" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D19" s="254" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E19" s="255" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F19" s="252" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G19" s="253" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H19" s="253" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I19" s="256">
         <v>45507.0</v>
@@ -26243,19 +26221,19 @@
         <v>2500.0</v>
       </c>
       <c r="M19" s="253" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N19" s="253" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O19" s="253" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P19" s="259">
         <v>45507.0</v>
       </c>
       <c r="Q19" s="253" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="R19" s="259">
         <v>45538.0</v>
@@ -26273,47 +26251,47 @@
       <c r="Y19" s="264"/>
       <c r="Z19" s="264"/>
       <c r="AA19" s="252" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AB19" s="252" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AC19" s="252" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AD19" s="252"/>
       <c r="AE19" s="252"/>
       <c r="AF19" s="253" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG19" s="253" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="248" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B20" s="200" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C20" s="197" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D20" s="198" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E20" s="199" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F20" s="200" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G20" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H20" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I20" s="247">
         <v>45510.0</v>
@@ -26329,19 +26307,19 @@
         <v>2500.0</v>
       </c>
       <c r="M20" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N20" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O20" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P20" s="232">
         <v>45510.0</v>
       </c>
       <c r="Q20" s="197" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="R20" s="232">
         <v>45529.0</v>
@@ -26359,47 +26337,47 @@
       <c r="Y20" s="209"/>
       <c r="Z20" s="209"/>
       <c r="AA20" s="200" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AB20" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AC20" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AD20" s="200"/>
       <c r="AE20" s="200"/>
       <c r="AF20" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG20" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="248" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B21" s="200" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C21" s="197" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D21" s="198" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E21" s="199" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F21" s="200" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G21" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H21" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I21" s="247">
         <v>45510.0</v>
@@ -26415,19 +26393,19 @@
         <v>2500.0</v>
       </c>
       <c r="M21" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N21" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O21" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P21" s="232">
         <v>45510.0</v>
       </c>
       <c r="Q21" s="197" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="R21" s="232">
         <v>45542.0</v>
@@ -26443,47 +26421,47 @@
       <c r="Y21" s="209"/>
       <c r="Z21" s="209"/>
       <c r="AA21" s="200" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AB21" s="200" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AC21" s="200" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AD21" s="200"/>
       <c r="AE21" s="200"/>
       <c r="AF21" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG21" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="248" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B22" s="265" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C22" s="197" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D22" s="198" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E22" s="199" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F22" s="200" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G22" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H22" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I22" s="247">
         <v>45509.0</v>
@@ -26499,19 +26477,19 @@
         <v>2500.0</v>
       </c>
       <c r="M22" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N22" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O22" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P22" s="232">
         <v>45509.0</v>
       </c>
       <c r="Q22" s="197" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="R22" s="232">
         <v>45530.0</v>
@@ -26533,47 +26511,47 @@
       <c r="Y22" s="209"/>
       <c r="Z22" s="209"/>
       <c r="AA22" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AB22" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AC22" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AD22" s="200"/>
       <c r="AE22" s="200"/>
       <c r="AF22" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG22" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="248" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B23" s="216" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C23" s="197" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D23" s="198" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E23" s="199" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F23" s="200" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G23" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H23" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I23" s="247">
         <v>45509.0</v>
@@ -26589,19 +26567,19 @@
         <v>2500.0</v>
       </c>
       <c r="M23" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N23" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O23" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P23" s="232">
         <v>45509.0</v>
       </c>
       <c r="Q23" s="197" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="R23" s="232">
         <v>45543.0</v>
@@ -26627,47 +26605,47 @@
         <v>19.0</v>
       </c>
       <c r="AA23" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AB23" s="200" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AC23" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AD23" s="200"/>
       <c r="AE23" s="200"/>
       <c r="AF23" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG23" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="248" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B24" s="265" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C24" s="197" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D24" s="198" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E24" s="199" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F24" s="200" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G24" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H24" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I24" s="247">
         <v>45509.0</v>
@@ -26683,19 +26661,19 @@
         <v>2500.0</v>
       </c>
       <c r="M24" s="197" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N24" s="197" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="O24" s="197" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P24" s="232">
         <v>45509.0</v>
       </c>
       <c r="Q24" s="197" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="R24" s="232">
         <v>45530.0</v>
@@ -26713,47 +26691,47 @@
       <c r="Y24" s="209"/>
       <c r="Z24" s="209"/>
       <c r="AA24" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AB24" s="197" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AC24" s="197" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AD24" s="200"/>
       <c r="AE24" s="200"/>
       <c r="AF24" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG24" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="267" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B25" s="268" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C25" s="269" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D25" s="270" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E25" s="271" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F25" s="268" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G25" s="269" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H25" s="269" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I25" s="272">
         <v>45509.0</v>
@@ -26769,19 +26747,19 @@
         <v>2500.0</v>
       </c>
       <c r="M25" s="269" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="N25" s="269" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O25" s="269" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P25" s="275">
         <v>45509.0</v>
       </c>
       <c r="Q25" s="269" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="R25" s="275">
         <v>45534.0</v>
@@ -26805,26 +26783,26 @@
       </c>
       <c r="Z25" s="280"/>
       <c r="AA25" s="281" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AB25" s="281" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AC25" s="281" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AD25" s="281"/>
       <c r="AE25" s="281"/>
       <c r="AF25" s="269" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG25" s="269" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="282" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B26" s="283"/>
       <c r="C26" s="284"/>
@@ -26867,28 +26845,28 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="293" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B27" s="294" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C27" s="295" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D27" s="296" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E27" s="297" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F27" s="294" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="G27" s="295" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H27" s="295" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I27" s="298">
         <v>45524.0</v>
@@ -26904,19 +26882,19 @@
         <v>2500.0</v>
       </c>
       <c r="M27" s="295" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N27" s="295" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O27" s="295" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P27" s="301">
         <v>45537.0</v>
       </c>
       <c r="Q27" s="295" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="R27" s="301">
         <v>45564.0</v>
@@ -26934,44 +26912,44 @@
       <c r="Y27" s="306"/>
       <c r="Z27" s="306"/>
       <c r="AA27" s="294" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AB27" s="294" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AC27" s="294" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AD27" s="294"/>
       <c r="AE27" s="294"/>
       <c r="AF27" s="295" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG27" s="295" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" ht="21.75" customHeight="1">
       <c r="A28" s="267" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B28" s="200" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C28" s="197" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D28" s="198" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E28" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F28" s="200" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G28" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H28" s="200"/>
       <c r="I28" s="247">
@@ -26988,13 +26966,13 @@
         <v>2600.0</v>
       </c>
       <c r="M28" s="197" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N28" s="197" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O28" s="197" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P28" s="247">
         <v>45543.0</v>
@@ -27019,34 +26997,34 @@
       <c r="AD28" s="200"/>
       <c r="AE28" s="200"/>
       <c r="AF28" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG28" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" ht="22.5" customHeight="1">
       <c r="A29" s="64"/>
       <c r="B29" s="200" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C29" s="197" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D29" s="198" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E29" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F29" s="200" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G29" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H29" s="197" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I29" s="247">
         <v>45543.0</v>
@@ -27062,13 +27040,13 @@
         <v>2600.0</v>
       </c>
       <c r="M29" s="197" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N29" s="197" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O29" s="197" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P29" s="247">
         <v>45543.0</v>
@@ -27093,34 +27071,34 @@
       <c r="AD29" s="200"/>
       <c r="AE29" s="200"/>
       <c r="AF29" s="197" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG29" s="197" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
       <c r="A30" s="70"/>
       <c r="B30" s="268" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C30" s="269" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D30" s="270" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E30" s="199" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F30" s="268" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G30" s="269" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H30" s="269" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I30" s="272">
         <v>45543.0</v>
@@ -27136,13 +27114,13 @@
         <v>2600.0</v>
       </c>
       <c r="M30" s="269" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N30" s="269" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O30" s="269" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P30" s="272">
         <v>45543.0</v>
@@ -27167,15 +27145,15 @@
       <c r="AD30" s="268"/>
       <c r="AE30" s="268"/>
       <c r="AF30" s="269" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG30" s="269" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="309" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B31" s="287"/>
       <c r="C31" s="310"/>
@@ -27218,7 +27196,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="314" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B32" s="287"/>
       <c r="C32" s="310"/>
@@ -27282,7 +27260,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="318" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B33" s="319">
         <v>200000.0</v>
@@ -27321,7 +27299,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="318" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B34" s="319">
         <v>10000.0</v>
@@ -27360,7 +27338,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="320" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B35" s="319">
         <v>85500.0</v>
@@ -27399,7 +27377,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="318" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B36" s="319">
         <f>B35*2%</f>
@@ -27439,7 +27417,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="320" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B37" s="319">
         <f>B35-B36</f>
@@ -27479,7 +27457,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="318" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B38" s="319">
         <f>J26</f>
@@ -27519,7 +27497,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="320" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B39" s="319">
         <f>B38+B36</f>
@@ -27559,7 +27537,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="320" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B40" s="321">
         <f>B35-B39</f>
@@ -27634,7 +27612,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="320" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B42" s="319">
         <v>104500.0</v>
@@ -27673,7 +27651,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="318" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B43" s="319">
         <f>B42*2%</f>
@@ -27713,7 +27691,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="320" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B44" s="319">
         <f>73028.04</f>
@@ -27753,7 +27731,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="320" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B45" s="319">
         <f>B42-B43-B44</f>
@@ -27793,7 +27771,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="318" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B46" s="319">
         <f>J31</f>
@@ -27833,7 +27811,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="320" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B47" s="321">
         <f>B45-B46</f>
